--- a/documentation/CLASS Modeler - User histories.xlsx
+++ b/documentation/CLASS Modeler - User histories.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7560"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="User histories" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Iteraciones" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="55">
   <si>
     <t>HISTORIA DE USUARIO</t>
   </si>
@@ -69,12 +68,6 @@
     <t>H15. Diseñar diagrama</t>
   </si>
   <si>
-    <t>H16. Ver demostración</t>
-  </si>
-  <si>
-    <t>H17. Diseñar diagrama concurrentemente</t>
-  </si>
-  <si>
     <t>H19. Generar imagen del diagrama</t>
   </si>
   <si>
@@ -100,6 +93,93 @@
   </si>
   <si>
     <t>DEPENDENCIA</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>H1, H2</t>
+  </si>
+  <si>
+    <t>H6</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>H10</t>
+  </si>
+  <si>
+    <t>H15</t>
+  </si>
+  <si>
+    <t>H16. Diseñar diagrama concurrentemente</t>
+  </si>
+  <si>
+    <t>H17. Ver demostración</t>
+  </si>
+  <si>
+    <t>ITERACIÓN</t>
+  </si>
+  <si>
+    <t>HISTORIAS DE USUARIO</t>
+  </si>
+  <si>
+    <t>Iteración 1</t>
+  </si>
+  <si>
+    <t>H1, H2, H5</t>
+  </si>
+  <si>
+    <t>Iteración 2</t>
+  </si>
+  <si>
+    <t>H6, H9</t>
+  </si>
+  <si>
+    <t>Iteración 3</t>
+  </si>
+  <si>
+    <t>Iteración 4</t>
+  </si>
+  <si>
+    <t>Iteración 5</t>
+  </si>
+  <si>
+    <t>H10, H12</t>
+  </si>
+  <si>
+    <t>Iteración 6</t>
+  </si>
+  <si>
+    <t>H18, H19</t>
+  </si>
+  <si>
+    <t>Iteración 7</t>
+  </si>
+  <si>
+    <t>Iteración 8</t>
+  </si>
+  <si>
+    <t>H7, H8</t>
+  </si>
+  <si>
+    <t>Iteración 9</t>
+  </si>
+  <si>
+    <t>H3, H4</t>
+  </si>
+  <si>
+    <t>Iteración 10</t>
+  </si>
+  <si>
+    <t>H20, H21</t>
+  </si>
+  <si>
+    <t>H16, H17</t>
+  </si>
+  <si>
+    <t>H11, H13, H14</t>
   </si>
 </sst>
 </file>
@@ -464,13 +544,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -483,10 +564,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="2:5">
@@ -494,7 +575,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -506,240 +587,280 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9" s="1">
         <v>2</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D13" s="1">
         <v>2</v>
       </c>
-      <c r="E13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D14" s="1">
         <v>2</v>
       </c>
-      <c r="E14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
       </c>
-      <c r="E15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
       </c>
-      <c r="E16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
       </c>
-      <c r="E17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D18" s="1">
         <v>3</v>
       </c>
-      <c r="E18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D19" s="1">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="1" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D20" s="1">
-        <v>2</v>
-      </c>
-      <c r="E20" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D21" s="1">
         <v>2</v>
       </c>
-      <c r="E21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D22" s="1">
         <v>2</v>
       </c>
-      <c r="E22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="23" spans="2:5">
       <c r="B23" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D23" s="1">
         <v>2</v>
       </c>
-      <c r="E23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="24" spans="2:5">
       <c r="B24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="D24" s="1">
         <v>2</v>
       </c>
-      <c r="E24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -749,24 +870,108 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B2:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18:E18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/documentation/CLASS Modeler - User histories.xlsx
+++ b/documentation/CLASS Modeler - User histories.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7560" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7560" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="User histories" sheetId="1" r:id="rId1"/>
     <sheet name="Iteraciones" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="63">
   <si>
     <t>HISTORIA DE USUARIO</t>
   </si>
@@ -89,9 +90,6 @@
     <t>ALTA</t>
   </si>
   <si>
-    <t>ESTIMACIÓN</t>
-  </si>
-  <si>
     <t>DEPENDENCIA</t>
   </si>
   <si>
@@ -107,9 +105,6 @@
     <t>H3</t>
   </si>
   <si>
-    <t>H10</t>
-  </si>
-  <si>
     <t>H15</t>
   </si>
   <si>
@@ -180,13 +175,195 @@
   </si>
   <si>
     <t>H11, H13, H14</t>
+  </si>
+  <si>
+    <t>ESTIMACIÓN (Semanas)</t>
+  </si>
+  <si>
+    <t>H9</t>
+  </si>
+  <si>
+    <r>
+      <t>ID:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Usuario:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Estimación:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nombre de historia:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Prioridad (Alta / Media / Baja):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Descripción:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Observaciones:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Actividades:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,7 +394,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -240,20 +417,203 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -332,6 +692,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -366,6 +727,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -541,22 +903,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -564,13 +926,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5">
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -582,7 +944,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -593,10 +955,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -607,10 +969,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -621,10 +983,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -635,10 +997,10 @@
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
@@ -649,10 +1011,10 @@
         <v>2</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
@@ -663,10 +1025,10 @@
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
@@ -677,10 +1039,10 @@
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
@@ -691,10 +1053,10 @@
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
@@ -705,10 +1067,10 @@
         <v>2</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
@@ -719,10 +1081,10 @@
         <v>2</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
@@ -733,10 +1095,10 @@
         <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
@@ -747,10 +1109,10 @@
         <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
@@ -761,10 +1123,10 @@
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
@@ -775,12 +1137,12 @@
         <v>3</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>23</v>
@@ -789,12 +1151,12 @@
         <v>2</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>22</v>
@@ -803,10 +1165,10 @@
         <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>18</v>
       </c>
@@ -817,10 +1179,10 @@
         <v>2</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>17</v>
       </c>
@@ -831,10 +1193,10 @@
         <v>2</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>19</v>
       </c>
@@ -845,10 +1207,10 @@
         <v>2</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>20</v>
       </c>
@@ -859,7 +1221,7 @@
         <v>2</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -869,109 +1231,225 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="23.85546875" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
-      <c r="B3" s="1" t="s">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
-      <c r="B4" s="1" t="s">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="2:3">
-      <c r="B5" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="B6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
-      <c r="B7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="B8" s="1" t="s">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="B9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="B10" s="1" t="s">
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="2:3">
-      <c r="B11" s="1" t="s">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="B12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="4.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="16"/>
+      <c r="F3" s="15"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="15"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="9"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B6:F6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/documentation/CLASS Modeler - User histories.xlsx
+++ b/documentation/CLASS Modeler - User histories.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7560" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7560"/>
   </bookViews>
   <sheets>
     <sheet name="User histories" sheetId="1" r:id="rId1"/>
     <sheet name="Iteraciones" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja1" sheetId="3" r:id="rId3"/>
+    <sheet name="Formato de Historia de usuario" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -24,25 +24,10 @@
     <t>PRIORIDAD</t>
   </si>
   <si>
-    <t>H1. Crear cuenta de usuario</t>
-  </si>
-  <si>
-    <t>H2. Activar cuenta de usuario</t>
-  </si>
-  <si>
-    <t>H3. Desactivar cuenta de usuario</t>
-  </si>
-  <si>
-    <t>H4. Reactivar cuenta de usuario</t>
-  </si>
-  <si>
     <t>H5. Reasignar contraseña</t>
   </si>
   <si>
     <t>H6. Iniciar sesión</t>
-  </si>
-  <si>
-    <t>H7. Modificar perfil de usuario</t>
   </si>
   <si>
     <t>H8. Cambiar contraseña</t>
@@ -357,6 +342,21 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
+  </si>
+  <si>
+    <t>H1. Crear cuenta de diagramador</t>
+  </si>
+  <si>
+    <t>H2. Activar cuenta de diagramador</t>
+  </si>
+  <si>
+    <t>H3. Desactivar cuenta de diagramador</t>
+  </si>
+  <si>
+    <t>H4. Reactivar cuenta de diagramador</t>
+  </si>
+  <si>
+    <t>H7. Modificar perfil de diagramador</t>
   </si>
 </sst>
 </file>
@@ -555,53 +555,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -906,8 +906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -926,18 +926,18 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -946,282 +946,282 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D9" s="1">
         <v>2</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D13" s="1">
         <v>2</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D14" s="1">
         <v>2</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D18" s="1">
         <v>3</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D19" s="1">
         <v>2</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="D21" s="1">
         <v>2</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D22" s="1">
         <v>2</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D23" s="1">
         <v>2</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D24" s="1">
         <v>2</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1234,7 +1234,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -1246,90 +1246,90 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1342,7 +1342,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
@@ -1355,85 +1355,85 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="15"/>
+        <v>50</v>
+      </c>
+      <c r="C3" s="16"/>
       <c r="D3" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="15"/>
+        <v>51</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="B4" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="15"/>
+        <v>54</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="16"/>
       <c r="E5" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F5" s="15"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="8"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="9"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="10"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/documentation/CLASS Modeler - User histories.xlsx
+++ b/documentation/CLASS Modeler - User histories.xlsx
@@ -907,13 +907,13 @@
   <dimension ref="B3:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
     <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1234,7 +1234,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C12"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>

--- a/documentation/CLASS Modeler - User histories.xlsx
+++ b/documentation/CLASS Modeler - User histories.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="73">
   <si>
     <t>HISTORIA DE USUARIO</t>
   </si>
@@ -24,48 +24,6 @@
     <t>PRIORIDAD</t>
   </si>
   <si>
-    <t>H5. Reasignar contraseña</t>
-  </si>
-  <si>
-    <t>H6. Iniciar sesión</t>
-  </si>
-  <si>
-    <t>H8. Cambiar contraseña</t>
-  </si>
-  <si>
-    <t>H9. Crear diagrama</t>
-  </si>
-  <si>
-    <t>H10. Compartir diagrama</t>
-  </si>
-  <si>
-    <t>H11. Gestionar privilegios de diagrama</t>
-  </si>
-  <si>
-    <t>H12. Editar diagrama</t>
-  </si>
-  <si>
-    <t>H13. Eliminar diagrama</t>
-  </si>
-  <si>
-    <t>H14. Copiar diagrama</t>
-  </si>
-  <si>
-    <t>H15. Diseñar diagrama</t>
-  </si>
-  <si>
-    <t>H19. Generar imagen del diagrama</t>
-  </si>
-  <si>
-    <t>H18. Generar codigo fuente del diagrama</t>
-  </si>
-  <si>
-    <t>H20. Importar XMI</t>
-  </si>
-  <si>
-    <t>H22. Exportar XMI</t>
-  </si>
-  <si>
     <t>MEDIA</t>
   </si>
   <si>
@@ -84,21 +42,6 @@
     <t>H1, H2</t>
   </si>
   <si>
-    <t>H6</t>
-  </si>
-  <si>
-    <t>H3</t>
-  </si>
-  <si>
-    <t>H15</t>
-  </si>
-  <si>
-    <t>H16. Diseñar diagrama concurrentemente</t>
-  </si>
-  <si>
-    <t>H17. Ver demostración</t>
-  </si>
-  <si>
     <t>ITERACIÓN</t>
   </si>
   <si>
@@ -108,15 +51,9 @@
     <t>Iteración 1</t>
   </si>
   <si>
-    <t>H1, H2, H5</t>
-  </si>
-  <si>
     <t>Iteración 2</t>
   </si>
   <si>
-    <t>H6, H9</t>
-  </si>
-  <si>
     <t>Iteración 3</t>
   </si>
   <si>
@@ -160,12 +97,6 @@
   </si>
   <si>
     <t>H11, H13, H14</t>
-  </si>
-  <si>
-    <t>ESTIMACIÓN (Semanas)</t>
-  </si>
-  <si>
-    <t>H9</t>
   </si>
   <si>
     <r>
@@ -350,13 +281,112 @@
     <t>H2. Activar cuenta de diagramador</t>
   </si>
   <si>
-    <t>H3. Desactivar cuenta de diagramador</t>
-  </si>
-  <si>
-    <t>H4. Reactivar cuenta de diagramador</t>
-  </si>
-  <si>
-    <t>H7. Modificar perfil de diagramador</t>
+    <t>H3. Recuperar Contraseña</t>
+  </si>
+  <si>
+    <t>H4. Iniciar sesión</t>
+  </si>
+  <si>
+    <t>H5. Editar perfil</t>
+  </si>
+  <si>
+    <t>H6. Cambiar contraseña</t>
+  </si>
+  <si>
+    <t>H7. Crear diagrama</t>
+  </si>
+  <si>
+    <t>H8. Compartir diagrama</t>
+  </si>
+  <si>
+    <t>H9. Cambiar privilegio</t>
+  </si>
+  <si>
+    <t>H10. Quitar privilegio</t>
+  </si>
+  <si>
+    <t>H11. Editar diagrama</t>
+  </si>
+  <si>
+    <t>H12. Eliminar diagrama</t>
+  </si>
+  <si>
+    <t>H13. Copiar diagrama</t>
+  </si>
+  <si>
+    <t>ESTIMACIÓN</t>
+  </si>
+  <si>
+    <t>1 Semana</t>
+  </si>
+  <si>
+    <t>4 Dias</t>
+  </si>
+  <si>
+    <t>4 Semanas</t>
+  </si>
+  <si>
+    <t>2 Semanas</t>
+  </si>
+  <si>
+    <t>1 Semanas</t>
+  </si>
+  <si>
+    <t>3 Dias</t>
+  </si>
+  <si>
+    <t>H4</t>
+  </si>
+  <si>
+    <t>H7</t>
+  </si>
+  <si>
+    <t>H8</t>
+  </si>
+  <si>
+    <t>H4, H8, H14</t>
+  </si>
+  <si>
+    <t>H14</t>
+  </si>
+  <si>
+    <t>H1, H2, H4</t>
+  </si>
+  <si>
+    <t>H7, H8, H12</t>
+  </si>
+  <si>
+    <t>H18. Guardar cambios del diagrama</t>
+  </si>
+  <si>
+    <t>H20. Ver demostración</t>
+  </si>
+  <si>
+    <t>H21. Generar codigo fuente</t>
+  </si>
+  <si>
+    <t>H22. Generar imagen</t>
+  </si>
+  <si>
+    <t>H23. Generar constructor</t>
+  </si>
+  <si>
+    <t>H24. Generar métodos Get/Set</t>
+  </si>
+  <si>
+    <t>H14. Gestionar de elementos del diagrama</t>
+  </si>
+  <si>
+    <t>H15. Gestionar de atributos</t>
+  </si>
+  <si>
+    <t>H16. Gestionar de operaciones</t>
+  </si>
+  <si>
+    <t>H17. Gestionar de relaciones</t>
+  </si>
+  <si>
+    <t>H19. Editar diagrama concurrentemente</t>
   </si>
 </sst>
 </file>
@@ -904,324 +934,350 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E24"/>
+  <dimension ref="B2:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="B3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="1">
         <v>2</v>
       </c>
+      <c r="D9" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="E9" s="1" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
+      <c r="D11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="1">
         <v>2</v>
       </c>
+      <c r="D13" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="E13" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="1">
         <v>2</v>
       </c>
+      <c r="D14" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="E14" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>49</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="1">
-        <v>3</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>49</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="1">
-        <v>2</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="1">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="1">
         <v>2</v>
       </c>
+      <c r="D22" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="E22" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="1">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="1">
+        <v>4</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>49</v>
+      <c r="D25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1235,7 +1291,7 @@
   <dimension ref="B2:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1246,90 +1302,90 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1365,18 +1421,18 @@
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="17" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="14" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
@@ -1385,18 +1441,18 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="16"/>
       <c r="E5" s="14" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="F5" s="16"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="18" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
@@ -1405,7 +1461,7 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -1414,7 +1470,7 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>

--- a/documentation/CLASS Modeler - User histories.xlsx
+++ b/documentation/CLASS Modeler - User histories.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Iteraciones" sheetId="2" r:id="rId2"/>
     <sheet name="Formato de Historia de usuario" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="71">
   <si>
     <t>HISTORIA DE USUARIO</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>H1</t>
-  </si>
-  <si>
-    <t>H1, H2</t>
   </si>
   <si>
     <t>ITERACIÓN</t>
@@ -287,66 +284,18 @@
     <t>H4. Iniciar sesión</t>
   </si>
   <si>
-    <t>H5. Editar perfil</t>
-  </si>
-  <si>
-    <t>H6. Cambiar contraseña</t>
-  </si>
-  <si>
     <t>H7. Crear diagrama</t>
   </si>
   <si>
-    <t>H8. Compartir diagrama</t>
-  </si>
-  <si>
-    <t>H9. Cambiar privilegio</t>
-  </si>
-  <si>
-    <t>H10. Quitar privilegio</t>
-  </si>
-  <si>
-    <t>H11. Editar diagrama</t>
-  </si>
-  <si>
-    <t>H12. Eliminar diagrama</t>
-  </si>
-  <si>
-    <t>H13. Copiar diagrama</t>
-  </si>
-  <si>
     <t>ESTIMACIÓN</t>
   </si>
   <si>
-    <t>1 Semana</t>
-  </si>
-  <si>
-    <t>4 Dias</t>
-  </si>
-  <si>
-    <t>4 Semanas</t>
-  </si>
-  <si>
-    <t>2 Semanas</t>
-  </si>
-  <si>
-    <t>1 Semanas</t>
-  </si>
-  <si>
-    <t>3 Dias</t>
-  </si>
-  <si>
     <t>H4</t>
   </si>
   <si>
     <t>H7</t>
   </si>
   <si>
-    <t>H8</t>
-  </si>
-  <si>
-    <t>H4, H8, H14</t>
-  </si>
-  <si>
     <t>H14</t>
   </si>
   <si>
@@ -371,22 +320,67 @@
     <t>H23. Generar constructor</t>
   </si>
   <si>
-    <t>H24. Generar métodos Get/Set</t>
-  </si>
-  <si>
     <t>H14. Gestionar de elementos del diagrama</t>
   </si>
   <si>
-    <t>H15. Gestionar de atributos</t>
-  </si>
-  <si>
-    <t>H16. Gestionar de operaciones</t>
-  </si>
-  <si>
-    <t>H17. Gestionar de relaciones</t>
-  </si>
-  <si>
     <t>H19. Editar diagrama concurrentemente</t>
+  </si>
+  <si>
+    <t>H24. Generar métodos get/set</t>
+  </si>
+  <si>
+    <t>H16</t>
+  </si>
+  <si>
+    <t>H15</t>
+  </si>
+  <si>
+    <t>H14, H15, H16, H17</t>
+  </si>
+  <si>
+    <t>H6. Cambiar contraseña de diagramador</t>
+  </si>
+  <si>
+    <t>H5. Editar perfil de diagramador</t>
+  </si>
+  <si>
+    <t>H15. Gestionar atributos</t>
+  </si>
+  <si>
+    <t>H16. Gestionar operaciones</t>
+  </si>
+  <si>
+    <t>H17. Gestionar relaciones</t>
+  </si>
+  <si>
+    <t>H8. Editar diagrama</t>
+  </si>
+  <si>
+    <t>H9. Eliminar diagrama</t>
+  </si>
+  <si>
+    <t>H10. Copiar diagrama</t>
+  </si>
+  <si>
+    <t>H11. Compartir diagrama</t>
+  </si>
+  <si>
+    <t>H12. Cambiar privilegio otorgado</t>
+  </si>
+  <si>
+    <t>H13. Quitar privilegio otorgado</t>
+  </si>
+  <si>
+    <t>H11</t>
+  </si>
+  <si>
+    <t>H11, H14, H15, H16, H17</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>dias</t>
   </si>
 </sst>
 </file>
@@ -581,7 +575,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -632,6 +626,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -934,353 +939,448 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E26"/>
+  <dimension ref="B2:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="40.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="25"/>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="19">
+        <v>7</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="19">
+        <v>7</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="19">
+        <v>7</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="19">
+        <v>9</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="19">
+        <v>6</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="19">
+        <v>5</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="19">
+        <v>7</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="19">
+        <v>5</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="19">
+        <v>5</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="19">
+        <v>5</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="19">
+        <v>15</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="19">
+        <v>4</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="19">
+        <v>4</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="19">
+        <v>15</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="19">
+        <v>8</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="19">
+        <v>8</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="19">
+        <v>15</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="19">
+        <v>5</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="19">
+        <v>10</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="19">
+        <v>5</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="21">
+        <v>15</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="C24" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="21">
+        <v>10</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="D25" s="21">
+        <v>4</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="D26" s="21">
         <v>4</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="E26" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>59</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D2:E2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1302,90 +1402,90 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1421,18 +1521,18 @@
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
@@ -1441,18 +1541,18 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="16"/>
       <c r="E5" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" s="16"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
@@ -1461,7 +1561,7 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -1470,7 +1570,7 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>

--- a/documentation/CLASS Modeler - User histories.xlsx
+++ b/documentation/CLASS Modeler - User histories.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="71">
   <si>
     <t>HISTORIA DE USUARIO</t>
   </si>
@@ -272,21 +272,6 @@
     </r>
   </si>
   <si>
-    <t>H1. Crear cuenta de diagramador</t>
-  </si>
-  <si>
-    <t>H2. Activar cuenta de diagramador</t>
-  </si>
-  <si>
-    <t>H3. Recuperar Contraseña</t>
-  </si>
-  <si>
-    <t>H4. Iniciar sesión</t>
-  </si>
-  <si>
-    <t>H7. Crear diagrama</t>
-  </si>
-  <si>
     <t>ESTIMACIÓN</t>
   </si>
   <si>
@@ -305,72 +290,12 @@
     <t>H7, H8, H12</t>
   </si>
   <si>
-    <t>H18. Guardar cambios del diagrama</t>
-  </si>
-  <si>
-    <t>H20. Ver demostración</t>
-  </si>
-  <si>
-    <t>H21. Generar codigo fuente</t>
-  </si>
-  <si>
-    <t>H22. Generar imagen</t>
-  </si>
-  <si>
-    <t>H23. Generar constructor</t>
-  </si>
-  <si>
-    <t>H14. Gestionar de elementos del diagrama</t>
-  </si>
-  <si>
-    <t>H19. Editar diagrama concurrentemente</t>
-  </si>
-  <si>
-    <t>H24. Generar métodos get/set</t>
-  </si>
-  <si>
     <t>H16</t>
   </si>
   <si>
-    <t>H15</t>
-  </si>
-  <si>
     <t>H14, H15, H16, H17</t>
   </si>
   <si>
-    <t>H6. Cambiar contraseña de diagramador</t>
-  </si>
-  <si>
-    <t>H5. Editar perfil de diagramador</t>
-  </si>
-  <si>
-    <t>H15. Gestionar atributos</t>
-  </si>
-  <si>
-    <t>H16. Gestionar operaciones</t>
-  </si>
-  <si>
-    <t>H17. Gestionar relaciones</t>
-  </si>
-  <si>
-    <t>H8. Editar diagrama</t>
-  </si>
-  <si>
-    <t>H9. Eliminar diagrama</t>
-  </si>
-  <si>
-    <t>H10. Copiar diagrama</t>
-  </si>
-  <si>
-    <t>H11. Compartir diagrama</t>
-  </si>
-  <si>
-    <t>H12. Cambiar privilegio otorgado</t>
-  </si>
-  <si>
-    <t>H13. Quitar privilegio otorgado</t>
-  </si>
-  <si>
     <t>H11</t>
   </si>
   <si>
@@ -381,6 +306,81 @@
   </si>
   <si>
     <t>dias</t>
+  </si>
+  <si>
+    <t>H1. Diseño de interfaz grafica de usuario</t>
+  </si>
+  <si>
+    <t>H2. Crear cuenta de diagramador</t>
+  </si>
+  <si>
+    <t>H3. Activar cuenta de diagramador</t>
+  </si>
+  <si>
+    <t>H4. Reasignar Contraseña</t>
+  </si>
+  <si>
+    <t>H5. Iniciar sesión</t>
+  </si>
+  <si>
+    <t>H6. Editar perfil de diagramador</t>
+  </si>
+  <si>
+    <t>H7. Cambiar contraseña de cuenta</t>
+  </si>
+  <si>
+    <t>H8. Crear diagrama</t>
+  </si>
+  <si>
+    <t>H9. Editar diagrama</t>
+  </si>
+  <si>
+    <t>H10. Eliminar diagrama</t>
+  </si>
+  <si>
+    <t>H11. Copiar diagrama</t>
+  </si>
+  <si>
+    <t>H12. Compartir diagrama</t>
+  </si>
+  <si>
+    <t>H13. Cambiar privilegio otorgado</t>
+  </si>
+  <si>
+    <t>H14. Quitar privilegio otorgado</t>
+  </si>
+  <si>
+    <t>H15. Herramientas de edición comunes</t>
+  </si>
+  <si>
+    <t>H16. Gestionar de elementos del diagrama</t>
+  </si>
+  <si>
+    <t>H17. Gestionar atributos de los elementos</t>
+  </si>
+  <si>
+    <t>H18. Gestionar operaciones de los elementos</t>
+  </si>
+  <si>
+    <t>H19. Gestionar relaciones entre elementos</t>
+  </si>
+  <si>
+    <t>H20. Guardar cambios del diagrama</t>
+  </si>
+  <si>
+    <t>H21. Editar diagrama concurrentemente</t>
+  </si>
+  <si>
+    <t>H23. Generar codigo fuente</t>
+  </si>
+  <si>
+    <t>H22. Modo Demostración</t>
+  </si>
+  <si>
+    <t>H24. Generar imagen</t>
+  </si>
+  <si>
+    <t>H25. Herramientas avanzadas sobre elementos</t>
   </si>
 </sst>
 </file>
@@ -575,68 +575,71 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -939,443 +942,489 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F26"/>
+  <dimension ref="B2:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" customWidth="1"/>
     <col min="4" max="4" width="4.7109375" customWidth="1"/>
     <col min="5" max="5" width="7.85546875" customWidth="1"/>
     <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="25"/>
+      <c r="D2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="10"/>
       <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D4" s="3">
         <v>7</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>5</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>7</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>9</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="3">
+        <v>6</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="3">
+        <v>5</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="3">
+        <v>7</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3">
+        <v>5</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3">
+        <v>5</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="3">
+        <v>5</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="3">
+        <v>15</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3">
+        <v>4</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="3">
+        <v>4</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="3">
+        <v>15</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="3">
+        <v>8</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="3">
+        <v>8</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="3">
+        <v>15</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="3">
+        <v>5</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="3">
+        <v>10</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="3">
+        <v>5</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="5">
+        <v>15</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="5">
+        <v>10</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="23" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="19" t="s">
+      <c r="C27" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="19">
-        <v>7</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="19">
-        <v>7</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="19">
-        <v>9</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="19">
-        <v>6</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="F7" s="20" t="s">
+      <c r="D27" s="5">
+        <v>4</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="19">
-        <v>5</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="19">
-        <v>7</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="19">
-        <v>5</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="19">
-        <v>5</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="19">
-        <v>5</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="19">
-        <v>15</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="19">
-        <v>4</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="19">
-        <v>4</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="19">
-        <v>15</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="19">
-        <v>8</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="19">
-        <v>8</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="19">
-        <v>15</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="19">
-        <v>5</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="19">
-        <v>10</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="19">
-        <v>5</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="21">
-        <v>15</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="21">
-        <v>10</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="21">
-        <v>4</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="21">
-        <v>4</v>
-      </c>
-      <c r="E26" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>54</v>
-      </c>
+      <c r="G27" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1413,7 +1462,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
@@ -1421,7 +1470,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
@@ -1429,7 +1478,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
@@ -1511,85 +1560,85 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="14" t="s">
+      <c r="C3" s="24"/>
+      <c r="D3" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="16"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="24"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="14" t="s">
+      <c r="C5" s="23"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="16"/>
+      <c r="F5" s="24"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="14"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="17"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="12"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
